--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>招商中证煤炭等权指数（LOF）</t>
   </si>
   <si>
+    <t>9.63</t>
+  </si>
+  <si>
     <t>85.45</t>
   </si>
   <si>
     <t>2.87</t>
+  </si>
+  <si>
+    <t>0.2764</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>161724</t>
-  </si>
-  <si>
-    <t>招商中证煤炭等权指数（LOF）</t>
-  </si>
-  <si>
-    <t>9.63</t>
-  </si>
-  <si>
-    <t>85.45</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>0.2764</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,721 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -1188,12 +1188,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1219,13 +1262,499 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.16</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.13</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1748,13 +1813,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2764</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -609,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.16</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3658</t>
+          <t>0.8524</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -637,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>012412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>汇泉策略优选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>23.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.20</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6778</t>
+          <t>0.5142</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -685,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6277</t>
+          <t>0.2704</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -723,22 +729,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>96.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2999</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -751,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011448</t>
+          <t>013596</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券均衡成长混合A</t>
+          <t>招商中证煤炭等权指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0447</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -789,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>014825</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>汇泉兴至未来一年持有混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>37.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -837,22 +843,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>96.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -865,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166109</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信达澳银量化先锋混合（LOF）A</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>65.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -903,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>014826</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>汇泉兴至未来一年持有混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>37.93</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -941,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011449</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银证券均衡成长混合C</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -979,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>013939</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>汇泉策略优选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>44.22</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1017,150 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>80.68</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>80.68</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>44.22</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>166110</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1599,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1747,26 +1639,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8524</t>
+          <t>1.3658</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1667,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012412</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.16</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5142</t>
+          <t>0.6778</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1823,26 +1715,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2704</t>
+          <t>0.6277</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1861,22 +1753,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.07</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1097</t>
+          <t>0.2999</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1889,36 +1781,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013596</t>
+          <t>011448</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）C</t>
+          <t>中银证券均衡成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0878</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1927,36 +1819,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014825</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇泉兴至未来一年持有混合A</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.93</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1975,22 +1867,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.07</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2003,36 +1895,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004557</t>
+          <t>166109</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
+          <t>信达澳银量化先锋混合（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>65.11</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0156</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2041,36 +1933,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014826</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇泉兴至未来一年持有混合C</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>37.93</t>
+          <t>63.85</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2079,36 +1971,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>011449</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>中银证券均衡成长混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2117,36 +2009,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013939</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇泉策略优选混合C</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>44.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2155,36 +2047,150 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>004914</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2198,96 +2204,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.28</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601101-昊华能源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.92</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.13</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8524</t>
+          <t>0.2167</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -643,32 +660,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012412</t>
+          <t>011269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
+          <t>中银证券优势制造股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.16</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5142</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>011270</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>中银证券优势制造股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2704</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -719,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011269</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.07</t>
+          <t>86.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1097</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -757,36 +774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013596</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）C</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>43.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0878</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -795,264 +812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014825</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇泉兴至未来一年持有混合A</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.93</t>
+          <t>43.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011270</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>65.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014826</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇泉兴至未来一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013939</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇泉策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>41.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1117,36 +906,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6245</t>
+          <t>0.8524</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1155,32 +944,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>012412</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>汇泉策略优选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>23.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2298</t>
+          <t>0.5142</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1193,36 +982,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0968</t>
+          <t>0.2704</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1231,36 +1020,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011448</t>
+          <t>011269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券均衡成长混合A</t>
+          <t>中银证券优势制造股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>96.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0529</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1269,36 +1058,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000826</t>
+          <t>013596</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证百度百发策略100指数A</t>
+          <t>招商中证煤炭等权指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0427</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1307,36 +1096,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000827</t>
+          <t>014825</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证百度百发策略100指数E</t>
+          <t>汇泉兴至未来一年持有混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>37.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0427</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1345,36 +1134,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005055</t>
+          <t>011270</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+          <t>中银证券优势制造股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>96.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1383,36 +1172,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011449</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银证券均衡成长混合C</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>65.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1421,36 +1210,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>014826</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>汇泉兴至未来一年持有混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>37.93</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1459,32 +1248,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168301</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.56</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1497,36 +1286,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>013939</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>汇泉策略优选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1535,32 +1324,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006532</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1573,6 +1362,518 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2198,7 +2499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
